--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -48,8 +48,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -127,25 +130,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" headerRowCount="1">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
-    <tableColumn id="3" name="Measure Description"/>
+    <tableColumn id="3" name="Measure Data Type"/>
+    <tableColumn id="4" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:D5" headerRowCount="1">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F5" headerRowCount="1">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
+    <tableColumn id="5" name="Table Query"/>
+    <tableColumn id="6" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,45 +462,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Measure Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Measure Expression</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Measure Data Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Measure Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>ProjectedSales</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>SUM('Sales SalesOrderDetail'[DerivedLineTotal])</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>This calculation adds up the total sum of line items in a sales order. This gives you a total value of the sales order by adding up the individual line item prices.</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>This calculation is adding up the total derived line total of the Sales SalesOrderDetail table. This derived line total is the total amount (price times quantity) of each item in each sales order. This calculation is essentially totaling the sales amounts of each sales order.</t>
         </is>
       </c>
     </row>
@@ -512,113 +534,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Table No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Table Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Table Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Table Source</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Table Query</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Production Product</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Sql.Database</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Production_Product = Source{[Schema="Production",Item="Product"]}[Data]
+in
+    Production_Product</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderDetail</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Sql.Database</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
         </is>
       </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    #"Rounded Off" = Table.TransformColumns(Sales_SalesOrderDetail,{{"LineTotal", each Number.Round(_, 2), type number}})
+in
+    #"Rounded Off"</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderHeader</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Sql.Database</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
         </is>
       </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Sales_SalesOrderHeader = Source{[Schema="Sales",Item="SalesOrderHeader"]}[Data]
+in
+    Sales_SalesOrderHeader</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Sales SalesTerritory</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Sql.Database</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>"MAQN0366\SQLEXPRESS", "AdventureWorks2012"</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>No Query</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Sales_SalesTerritory = Source{[Schema="Sales",Item="SalesTerritory"]}[Data]
+in
+    Sales_SalesTerritory</t>
         </is>
       </c>
     </row>
@@ -643,150 +731,159 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>From Table</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From Column</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>To Table</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To Column</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cardinality</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderDetail</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>SalesOrderID</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderHeader</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>SalesOrderID</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Single Directional</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Many to one (*:1)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderHeader</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>TerritoryID</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Sales SalesTerritory</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>TerritoryID</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Single Directional</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>Many to one (*:1)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Sales SalesOrderDetail</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>ProductID</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Production Product</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>ProductID</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>ready</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Single Directional</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>Many to one (*:1)</t>
         </is>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is adding up the total derived line total of the Sales SalesOrderDetail table. This derived line total is the total amount (price times quantity) of each item in each sales order. This calculation is essentially totaling the sales amounts of each sales order.</t>
+          <t>This calculation is adding up the line totals of all sales orders in the Sales SalesOrderDetail table. In other words, it is the total of all sales amounts in the Sales SalesOrderDetail table.</t>
         </is>
       </c>
     </row>
@@ -608,9 +608,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Production_Product = Source{[Schema="Production",Item="Product"]}[Data]
-in
-    Production_Product</t>
+          <t>No Modification</t>
         </is>
       </c>
     </row>
@@ -640,9 +638,8 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    #"Rounded Off" = Table.TransformColumns(Sales_SalesOrderDetail,{{"LineTotal", each Number.Round(_, 2), type number}})
-in
-    #"Rounded Off"</t>
+          <t xml:space="preserve">1. #"Rounded Off" = Table.TransformColumns(Sales_SalesOrderDetail,{{"LineTotal", each Number.Round(_, 2), type number}})
+</t>
         </is>
       </c>
     </row>
@@ -672,9 +669,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Sales_SalesOrderHeader = Source{[Schema="Sales",Item="SalesOrderHeader"]}[Data]
-in
-    Sales_SalesOrderHeader</t>
+          <t>No Modification</t>
         </is>
       </c>
     </row>
@@ -704,9 +699,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Sales_SalesTerritory = Source{[Schema="Sales",Item="SalesTerritory"]}[Data]
-in
-    Sales_SalesTerritory</t>
+          <t>No Modification</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -143,15 +143,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:F5" headerRowCount="1">
-  <autoFilter ref="A1:F5"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
     <tableColumn id="4" name="Table Source"/>
-    <tableColumn id="5" name="Table Query"/>
-    <tableColumn id="6" name="Modification"/>
+    <tableColumn id="5" name="Original Table Name"/>
+    <tableColumn id="6" name="Table Query"/>
+    <tableColumn id="7" name="Modification"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,7 +517,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is adding up the line totals of all sales orders in the Sales SalesOrderDetail table. In other words, it is the total of all sales amounts in the Sales SalesOrderDetail table.</t>
+          <t>This calculation is summing up the line totals of all items in the Sales SalesOrderDetail table. This helps to determine the total sales value for a particular time period.</t>
         </is>
       </c>
     </row>
@@ -534,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,10 +545,11 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="80" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="80" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,10 +575,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Original Table Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Table Query</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Modification</t>
         </is>
@@ -603,10 +610,15 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>Production_Product</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>No Modification</t>
         </is>
@@ -633,10 +645,15 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Sales_SalesOrderDetail</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">1. #"Rounded Off" = Table.TransformColumns(Sales_SalesOrderDetail,{{"LineTotal", each Number.Round(_, 2), type number}})
 </t>
@@ -664,10 +681,15 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
+          <t>Sales_SalesOrderHeader</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>No Modification</t>
         </is>
@@ -694,10 +716,15 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
+          <t>Sales_SalesTerritory</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
           <t>No Query</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>No Modification</t>
         </is>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -143,9 +143,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:H5" headerRowCount="1">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
     <tableColumn id="3" name="Table Type"/>
@@ -153,6 +153,7 @@
     <tableColumn id="5" name="Original Table Name"/>
     <tableColumn id="6" name="Table Query"/>
     <tableColumn id="7" name="Modification"/>
+    <tableColumn id="8" name="Modification Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -517,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing up the line totals of all items in the Sales SalesOrderDetail table. This helps to determine the total sales value for a particular time period.</t>
+          <t>This calculation is summing up the totalDerivedLineTotal value of all the items in the Sales SalesOrderDetail table. This is done to get the total amount of sales from all the sales order details, which provides an overall picture of the sales data.</t>
         </is>
       </c>
     </row>
@@ -535,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +551,7 @@
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -588,6 +590,11 @@
           <t>Modification</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Modification Description</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -623,6 +630,11 @@
           <t>No Modification</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -659,6 +671,11 @@
 </t>
         </is>
       </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>This sentence is saying that we are going to take a data source called "SalesOrderDetail" from the "Sales" schema and then take that data and round off a column named "LineTotal" to two decimal places and displaying it as a number.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -694,6 +711,11 @@
           <t>No Modification</t>
         </is>
       </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -727,6 +749,11 @@
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>No Modification</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>No Description</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing up the totalDerivedLineTotal value of all the items in the Sales SalesOrderDetail table. This is done to get the total amount of sales from all the sales order details, which provides an overall picture of the sales data.</t>
+          <t>This calculation is summing up the total derived line totals from the sales sales order detail table. This number will be a total of the net amount for all of the line items within the sales order.</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This sentence is saying that we are going to take a data source called "SalesOrderDetail" from the "Sales" schema and then take that data and round off a column named "LineTotal" to two decimal places and displaying it as a number.</t>
+          <t>This code is used to take a dataset called "Sales_SalesOrderDetail" and round the values in its "LineTotal" column to two decimal places. All of the values in the "LineTotal" column will be displayed as numbers. The new, rounded version of the dataset is labeled as "#"Rounded Off".</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is summing up the total derived line totals from the sales sales order detail table. This number will be a total of the net amount for all of the line items within the sales order.</t>
+          <t>This calculation sums up the total value of all DerivedLineTotal values in the Sales SalesOrderDetail table. This value is the total amount of sales across all line items in the table, and it can be used to measure overall sales performance.</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>This code is used to take a dataset called "Sales_SalesOrderDetail" and round the values in its "LineTotal" column to two decimal places. All of the values in the "LineTotal" column will be displayed as numbers. The new, rounded version of the dataset is labeled as "#"Rounded Off".</t>
+          <t>The statement above is transforming and modifying a table named "Sales_SalesOrderDetail". It is changing the "LineTotal" column to a number with two decimals, and rounding it off.</t>
         </is>
       </c>
     </row>

--- a/EXCEL Output/Assignment2.xlsx
+++ b/EXCEL Output/Assignment2.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation sums up the total value of all DerivedLineTotal values in the Sales SalesOrderDetail table. This value is the total amount of sales across all line items in the table, and it can be used to measure overall sales performance.</t>
+          <t>This calculation is adding up the total derived line items of a sales transaction. It is taking the individual line items of all sales orders and combining them into a single sum total.</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="80" customWidth="1" min="7" max="7"/>
     <col width="80" customWidth="1" min="8" max="8"/>
@@ -673,7 +673,8 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>The statement above is transforming and modifying a table named "Sales_SalesOrderDetail". It is changing the "LineTotal" column to a number with two decimals, and rounding it off.</t>
+          <t xml:space="preserve">1. This statement rounds off the LineTotal column to two decimal places in the Sales_SalesOrderDetail Table.
+</t>
         </is>
       </c>
     </row>
